--- a/Inputs/Xen_Health/benefits1.xlsx
+++ b/Inputs/Xen_Health/benefits1.xlsx
@@ -709,11 +709,11 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C37" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="61.18"/>
@@ -1440,10 +1440,18 @@
       <c r="B39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="C39" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
@@ -1471,18 +1479,6 @@
       </c>
       <c r="B41" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,7 +1755,7 @@
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
